--- a/excel_reports/Matthew_Duffey.xlsx
+++ b/excel_reports/Matthew_Duffey.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13019" uniqueCount="3058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12978" uniqueCount="3052">
   <si>
     <t>Policy Record</t>
   </si>
@@ -7654,6 +7654,21 @@
     <t xml:space="preserve">HumanaChoice H5216-318 (PPO) </t>
   </si>
   <si>
+    <t>3168531048</t>
+  </si>
+  <si>
+    <t>5582851</t>
+  </si>
+  <si>
+    <t>Mandy</t>
+  </si>
+  <si>
+    <t>Aetna Medicare Value Plan (HMO)</t>
+  </si>
+  <si>
+    <t>08-22-2022</t>
+  </si>
+  <si>
     <t>3168695182</t>
   </si>
   <si>
@@ -7669,21 +7684,6 @@
     <t>AARP® Medicare Advantage Choice Plan 3 (PPO</t>
   </si>
   <si>
-    <t>3168531048</t>
-  </si>
-  <si>
-    <t>5582851</t>
-  </si>
-  <si>
-    <t>Mandy</t>
-  </si>
-  <si>
-    <t>Aetna Medicare Value Plan (HMO)</t>
-  </si>
-  <si>
-    <t>08-22-2022</t>
-  </si>
-  <si>
     <t>3168284318</t>
   </si>
   <si>
@@ -8737,15 +8737,6 @@
     <t>05-02-2022</t>
   </si>
   <si>
-    <t>3172287774</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Seifert</t>
-  </si>
-  <si>
     <t>3172219038</t>
   </si>
   <si>
@@ -8929,12 +8920,6 @@
     <t>3172310934</t>
   </si>
   <si>
-    <t>3172322072</t>
-  </si>
-  <si>
-    <t>08-05-2022</t>
-  </si>
-  <si>
     <t>3172287843</t>
   </si>
   <si>
@@ -8942,9 +8927,6 @@
   </si>
   <si>
     <t>02-07-2022</t>
-  </si>
-  <si>
-    <t>3172392029</t>
   </si>
   <si>
     <t>3172288000</t>
@@ -9606,12 +9588,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3028</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3029</v>
+        <v>3023</v>
       </c>
       <c r="B2" s="2">
         <v>490</v>
@@ -9619,7 +9601,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3030</v>
+        <v>3024</v>
       </c>
       <c r="B3" s="2">
         <v>586</v>
@@ -9627,18 +9609,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>3031</v>
+        <v>3025</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3032</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -9647,7 +9629,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>3034</v>
+        <v>3028</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -9655,30 +9637,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>3035</v>
+        <v>3029</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3036</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>3037</v>
+        <v>3031</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3038</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>3039</v>
+        <v>3033</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -9687,12 +9669,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>3040</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="B12" s="2">
         <v>59</v>
@@ -9700,7 +9682,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>3042</v>
+        <v>3036</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -9708,20 +9690,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>3043</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>3044</v>
+        <v>3038</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3057</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>3045</v>
+        <v>3039</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -9730,12 +9712,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3046</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>3047</v>
+        <v>3041</v>
       </c>
       <c r="B20">
         <v>106</v>
@@ -9743,15 +9725,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>3048</v>
+        <v>3042</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>3049</v>
+        <v>3043</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -9759,7 +9741,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>3050</v>
+        <v>3044</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -9768,7 +9750,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>3051</v>
+        <v>3045</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -9777,17 +9759,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>3052</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>3053</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>3054</v>
+        <v>3048</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -9795,7 +9777,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>3055</v>
+        <v>3049</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -9804,7 +9786,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>3056</v>
+        <v>3050</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -10491,7 +10473,7 @@
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>27</v>
@@ -10594,7 +10576,7 @@
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>27</v>
@@ -10897,7 +10879,7 @@
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>27</v>
@@ -11198,7 +11180,7 @@
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>27</v>
@@ -11231,7 +11213,7 @@
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>27</v>
@@ -11398,7 +11380,7 @@
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>27</v>
@@ -11499,7 +11481,7 @@
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>27</v>
@@ -11598,7 +11580,7 @@
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>27</v>
@@ -39279,7 +39261,7 @@
         <v>27</v>
       </c>
       <c r="L1039" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M1039" t="s">
         <v>118</v>
@@ -39288,7 +39270,7 @@
         <v>56</v>
       </c>
       <c r="Q1039" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S1039" s="10" t="s">
         <v>360</v>
@@ -39529,7 +39511,7 @@
         <v>27</v>
       </c>
       <c r="L1049" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M1049" t="s">
         <v>121</v>
@@ -39538,7 +39520,7 @@
         <v>61</v>
       </c>
       <c r="Q1049" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S1049" s="10" t="s">
         <v>360</v>
@@ -39894,7 +39876,7 @@
         <v>27</v>
       </c>
       <c r="L1063" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M1063" t="s">
         <v>108</v>
@@ -39903,7 +39885,7 @@
         <v>56</v>
       </c>
       <c r="Q1063" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S1063" s="10" t="s">
         <v>360</v>
@@ -40977,7 +40959,7 @@
         <v>27</v>
       </c>
       <c r="L1104" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M1104" t="s">
         <v>247</v>
@@ -40986,7 +40968,7 @@
         <v>21</v>
       </c>
       <c r="Q1104" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S1104" s="10" t="s">
         <v>360</v>
@@ -41262,7 +41244,7 @@
         <v>2545</v>
       </c>
       <c r="C1116" s="8" t="s">
-        <v>162</v>
+        <v>2546</v>
       </c>
       <c r="D1116" s="8" t="s">
         <v>163</v>
@@ -41280,10 +41262,10 @@
         <v>355</v>
       </c>
       <c r="I1116" s="8" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="J1116" s="8" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="K1116" t="s">
         <v>27</v>
@@ -41292,7 +41274,7 @@
         <v>18</v>
       </c>
       <c r="M1116" t="s">
-        <v>165</v>
+        <v>2548</v>
       </c>
       <c r="N1116" t="s">
         <v>166</v>
@@ -41300,66 +41282,66 @@
       <c r="Q1116" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="1117" spans="1:19">
-      <c r="A1117" s="7" t="s">
-        <v>2547</v>
-      </c>
-      <c r="B1117" s="7" t="s">
-        <v>2545</v>
-      </c>
-      <c r="C1117" s="8" t="s">
+      <c r="S1116" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:19">
+      <c r="A1118" s="7" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1118" s="7" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1118" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D1117" s="8" t="s">
+      <c r="D1118" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E1117" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1117" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1117" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1117" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1117" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1117" s="8" t="s">
-        <v>2548</v>
-      </c>
-      <c r="K1117" t="s">
+      <c r="E1118" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1118" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1118" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1118" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1118" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1118" s="8" t="s">
+        <v>2551</v>
+      </c>
+      <c r="K1118" t="s">
         <v>27</v>
       </c>
-      <c r="L1117" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1117" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1117" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1117" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="S1117" s="10" t="s">
-        <v>360</v>
+      <c r="L1118" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1118" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1118" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1118" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="1119" spans="1:19">
       <c r="A1119" s="7" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="B1119" s="7" t="s">
         <v>2550</v>
       </c>
       <c r="C1119" s="8" t="s">
-        <v>2551</v>
+        <v>162</v>
       </c>
       <c r="D1119" s="8" t="s">
         <v>163</v>
@@ -41377,10 +41359,10 @@
         <v>355</v>
       </c>
       <c r="I1119" s="8" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J1119" s="8" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="K1119" t="s">
         <v>27</v>
@@ -41389,10 +41371,10 @@
         <v>18</v>
       </c>
       <c r="M1119" t="s">
-        <v>2553</v>
+        <v>155</v>
       </c>
       <c r="N1119" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="Q1119" s="8" t="s">
         <v>359</v>
@@ -43781,7 +43763,7 @@
         <v>27</v>
       </c>
       <c r="L1213" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M1213" t="s">
         <v>208</v>
@@ -43790,7 +43772,7 @@
         <v>21</v>
       </c>
       <c r="Q1213" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S1213" s="10" t="s">
         <v>360</v>
@@ -43831,7 +43813,7 @@
         <v>27</v>
       </c>
       <c r="L1215" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M1215" t="s">
         <v>208</v>
@@ -43840,7 +43822,7 @@
         <v>21</v>
       </c>
       <c r="Q1215" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S1215" s="10" t="s">
         <v>360</v>
@@ -44434,7 +44416,7 @@
         <v>27</v>
       </c>
       <c r="L1237" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M1237" t="s">
         <v>118</v>
@@ -44549,10 +44531,10 @@
         <v>241</v>
       </c>
       <c r="O1241" t="s">
-        <v>2553</v>
+        <v>2548</v>
       </c>
       <c r="P1241" t="s">
-        <v>2553</v>
+        <v>2548</v>
       </c>
       <c r="Q1241" s="8" t="s">
         <v>359</v>
@@ -46941,8 +46923,8 @@
     <hyperlink ref="B1114" r:id="rId1128"/>
     <hyperlink ref="A1116" r:id="rId1129"/>
     <hyperlink ref="B1116" r:id="rId1130"/>
-    <hyperlink ref="A1117" r:id="rId1131"/>
-    <hyperlink ref="B1117" r:id="rId1132"/>
+    <hyperlink ref="A1118" r:id="rId1131"/>
+    <hyperlink ref="B1118" r:id="rId1132"/>
     <hyperlink ref="A1119" r:id="rId1133"/>
     <hyperlink ref="B1119" r:id="rId1134"/>
     <hyperlink ref="A1121" r:id="rId1135"/>
@@ -47124,7 +47106,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T244"/>
+  <dimension ref="A1:T238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48338,19 +48320,19 @@
         <v>2905</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>2906</v>
+        <v>354</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>2907</v>
+        <v>355</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>354</v>
@@ -48361,6 +48343,9 @@
       <c r="I54" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J54" s="8" t="s">
+        <v>2879</v>
+      </c>
       <c r="K54" t="s">
         <v>2872</v>
       </c>
@@ -48368,24 +48353,24 @@
         <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>1773</v>
+        <v>2231</v>
       </c>
       <c r="N54" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="7" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>354</v>
@@ -48403,7 +48388,7 @@
         <v>2870</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K56" t="s">
         <v>2872</v>
@@ -48412,21 +48397,21 @@
         <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>2231</v>
+        <v>828</v>
       </c>
       <c r="N56" t="s">
-        <v>56</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="7" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>850</v>
+        <v>289</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>851</v>
@@ -48464,16 +48449,16 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>354</v>
@@ -48490,9 +48475,6 @@
       <c r="I60" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>2874</v>
-      </c>
       <c r="K60" t="s">
         <v>2872</v>
       </c>
@@ -48500,24 +48482,24 @@
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="N60" t="s">
-        <v>460</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="7" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>132</v>
+        <v>861</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>354</v>
@@ -48541,21 +48523,21 @@
         <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>858</v>
+        <v>638</v>
       </c>
       <c r="N62" t="s">
-        <v>634</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="7" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>862</v>
@@ -48575,6 +48557,9 @@
       <c r="I64" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J64" s="8" t="s">
+        <v>2874</v>
+      </c>
       <c r="K64" t="s">
         <v>2872</v>
       </c>
@@ -48582,7 +48567,7 @@
         <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>638</v>
+        <v>2911</v>
       </c>
       <c r="N64" t="s">
         <v>531</v>
@@ -48590,16 +48575,16 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="7" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>354</v>
@@ -48626,24 +48611,24 @@
         <v>18</v>
       </c>
       <c r="M66" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="N66" t="s">
-        <v>531</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="7" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>354</v>
@@ -48667,27 +48652,33 @@
         <v>2872</v>
       </c>
       <c r="L68" t="s">
-        <v>18</v>
+        <v>2915</v>
       </c>
       <c r="M68" t="s">
-        <v>2916</v>
+        <v>1910</v>
       </c>
       <c r="N68" t="s">
-        <v>367</v>
+        <v>584</v>
+      </c>
+      <c r="O68" t="s">
+        <v>172</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="7" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>888</v>
+        <v>395</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>354</v>
@@ -48705,36 +48696,30 @@
         <v>2870</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K70" t="s">
         <v>2872</v>
       </c>
       <c r="L70" t="s">
-        <v>2918</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>1910</v>
+        <v>596</v>
       </c>
       <c r="N70" t="s">
-        <v>584</v>
-      </c>
-      <c r="O70" t="s">
-        <v>172</v>
-      </c>
-      <c r="P70" t="s">
-        <v>1041</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="7" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>395</v>
+        <v>892</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>893</v>
@@ -48767,21 +48752,21 @@
         <v>596</v>
       </c>
       <c r="N72" t="s">
-        <v>237</v>
+        <v>584</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="7" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>354</v>
@@ -48799,7 +48784,7 @@
         <v>2870</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
       <c r="K74" t="s">
         <v>2872</v>
@@ -48808,24 +48793,24 @@
         <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>596</v>
+        <v>108</v>
       </c>
       <c r="N74" t="s">
-        <v>584</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="7" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>354</v>
@@ -48843,7 +48828,7 @@
         <v>2870</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K76" t="s">
         <v>2872</v>
@@ -48852,24 +48837,24 @@
         <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="7" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>908</v>
+        <v>941</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>909</v>
+        <v>942</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>910</v>
+        <v>943</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>354</v>
@@ -48896,24 +48881,24 @@
         <v>18</v>
       </c>
       <c r="M78" t="s">
-        <v>105</v>
+        <v>944</v>
       </c>
       <c r="N78" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="7" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>942</v>
+        <v>493</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>943</v>
+        <v>969</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>354</v>
@@ -48931,7 +48916,7 @@
         <v>2870</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K80" t="s">
         <v>2872</v>
@@ -48940,24 +48925,24 @@
         <v>18</v>
       </c>
       <c r="M80" t="s">
-        <v>944</v>
+        <v>2922</v>
       </c>
       <c r="N80" t="s">
-        <v>241</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>493</v>
+        <v>981</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>354</v>
@@ -48975,7 +48960,7 @@
         <v>2870</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K82" t="s">
         <v>2872</v>
@@ -48984,24 +48969,24 @@
         <v>18</v>
       </c>
       <c r="M82" t="s">
-        <v>2925</v>
+        <v>833</v>
       </c>
       <c r="N82" t="s">
-        <v>634</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>980</v>
+        <v>1006</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>981</v>
+        <v>1007</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>982</v>
+        <v>1008</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>354</v>
@@ -49019,7 +49004,7 @@
         <v>2870</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
       <c r="K84" t="s">
         <v>2872</v>
@@ -49028,24 +49013,24 @@
         <v>18</v>
       </c>
       <c r="M84" t="s">
-        <v>833</v>
+        <v>509</v>
       </c>
       <c r="N84" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1007</v>
+        <v>202</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>354</v>
@@ -49063,7 +49048,7 @@
         <v>2870</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="K86" t="s">
         <v>2872</v>
@@ -49072,7 +49057,7 @@
         <v>18</v>
       </c>
       <c r="M86" t="s">
-        <v>509</v>
+        <v>1027</v>
       </c>
       <c r="N86" t="s">
         <v>392</v>
@@ -49080,16 +49065,16 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1025</v>
+        <v>1048</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>202</v>
+        <v>1049</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>354</v>
@@ -49107,7 +49092,7 @@
         <v>2870</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="K88" t="s">
         <v>2872</v>
@@ -49116,24 +49101,24 @@
         <v>18</v>
       </c>
       <c r="M88" t="s">
-        <v>1027</v>
+        <v>724</v>
       </c>
       <c r="N88" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1048</v>
+        <v>1086</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1049</v>
+        <v>352</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1050</v>
+        <v>1087</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>354</v>
@@ -49151,7 +49136,7 @@
         <v>2870</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K90" t="s">
         <v>2872</v>
@@ -49160,24 +49145,24 @@
         <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>724</v>
+        <v>2928</v>
       </c>
       <c r="N90" t="s">
-        <v>358</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>352</v>
+        <v>1106</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1087</v>
+        <v>1103</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>354</v>
@@ -49195,7 +49180,7 @@
         <v>2870</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K92" t="s">
         <v>2872</v>
@@ -49204,24 +49189,24 @@
         <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>2931</v>
+        <v>1872</v>
       </c>
       <c r="N92" t="s">
-        <v>46</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1106</v>
+        <v>956</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>354</v>
@@ -49248,24 +49233,24 @@
         <v>18</v>
       </c>
       <c r="M94" t="s">
-        <v>1872</v>
+        <v>863</v>
       </c>
       <c r="N94" t="s">
-        <v>531</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>2933</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>1110</v>
-      </c>
       <c r="C96" s="8" t="s">
-        <v>956</v>
+        <v>2934</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1111</v>
+        <v>2935</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>354</v>
@@ -49282,9 +49267,6 @@
       <c r="I96" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>2874</v>
-      </c>
       <c r="K96" t="s">
         <v>2872</v>
       </c>
@@ -49292,21 +49274,21 @@
         <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>863</v>
+        <v>2449</v>
       </c>
       <c r="N96" t="s">
-        <v>2934</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>2937</v>
+        <v>880</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>2938</v>
@@ -49344,13 +49326,13 @@
         <v>2939</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>2940</v>
+        <v>1133</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>880</v>
+        <v>1134</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>2941</v>
+        <v>1135</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>354</v>
@@ -49367,6 +49349,9 @@
       <c r="I100" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J100" s="8" t="s">
+        <v>2874</v>
+      </c>
       <c r="K100" t="s">
         <v>2872</v>
       </c>
@@ -49374,24 +49359,24 @@
         <v>18</v>
       </c>
       <c r="M100" t="s">
-        <v>2449</v>
+        <v>1136</v>
       </c>
       <c r="N100" t="s">
-        <v>425</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>354</v>
@@ -49409,7 +49394,7 @@
         <v>2870</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="K102" t="s">
         <v>2872</v>
@@ -49418,24 +49403,24 @@
         <v>18</v>
       </c>
       <c r="M102" t="s">
-        <v>1136</v>
+        <v>1145</v>
       </c>
       <c r="N102" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="7" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1143</v>
+        <v>395</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>354</v>
@@ -49453,7 +49438,7 @@
         <v>2870</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="K104" t="s">
         <v>2872</v>
@@ -49462,24 +49447,24 @@
         <v>18</v>
       </c>
       <c r="M104" t="s">
-        <v>1145</v>
+        <v>1952</v>
       </c>
       <c r="N104" t="s">
-        <v>241</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1152</v>
+        <v>1187</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>395</v>
+        <v>1188</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1153</v>
+        <v>1189</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>354</v>
@@ -49506,24 +49491,24 @@
         <v>18</v>
       </c>
       <c r="M106" t="s">
-        <v>1952</v>
+        <v>1190</v>
       </c>
       <c r="N106" t="s">
-        <v>639</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1187</v>
+        <v>1196</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>1188</v>
+        <v>1197</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1189</v>
+        <v>1198</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>354</v>
@@ -49541,7 +49526,7 @@
         <v>2870</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K108" t="s">
         <v>2872</v>
@@ -49550,24 +49535,24 @@
         <v>18</v>
       </c>
       <c r="M108" t="s">
-        <v>1190</v>
+        <v>1243</v>
       </c>
       <c r="N108" t="s">
-        <v>460</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1196</v>
+        <v>1220</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1197</v>
+        <v>1221</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1198</v>
+        <v>1222</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>354</v>
@@ -49585,7 +49570,7 @@
         <v>2870</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K110" t="s">
         <v>2872</v>
@@ -49594,24 +49579,24 @@
         <v>18</v>
       </c>
       <c r="M110" t="s">
-        <v>1243</v>
+        <v>435</v>
       </c>
       <c r="N110" t="s">
-        <v>20</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="7" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1221</v>
+        <v>493</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>354</v>
@@ -49629,7 +49614,7 @@
         <v>2870</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K112" t="s">
         <v>2872</v>
@@ -49638,24 +49623,24 @@
         <v>18</v>
       </c>
       <c r="M112" t="s">
-        <v>435</v>
+        <v>651</v>
       </c>
       <c r="N112" t="s">
-        <v>425</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="7" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>493</v>
+        <v>1237</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1225</v>
+        <v>1238</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>354</v>
@@ -49673,7 +49658,7 @@
         <v>2870</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
       <c r="K114" t="s">
         <v>2872</v>
@@ -49682,24 +49667,24 @@
         <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>651</v>
+        <v>1239</v>
       </c>
       <c r="N114" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="7" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1236</v>
+        <v>1246</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1237</v>
+        <v>1247</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>354</v>
@@ -49717,7 +49702,7 @@
         <v>2870</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="K116" t="s">
         <v>2872</v>
@@ -49726,24 +49711,24 @@
         <v>18</v>
       </c>
       <c r="M116" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="N116" t="s">
-        <v>237</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1246</v>
+        <v>1269</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>1247</v>
+        <v>1270</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1248</v>
+        <v>1271</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>354</v>
@@ -49770,24 +49755,24 @@
         <v>18</v>
       </c>
       <c r="M118" t="s">
-        <v>1249</v>
+        <v>368</v>
       </c>
       <c r="N118" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="7" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>1270</v>
+        <v>1283</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1271</v>
+        <v>1284</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>354</v>
@@ -49805,7 +49790,7 @@
         <v>2870</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="K120" t="s">
         <v>2872</v>
@@ -49814,24 +49799,24 @@
         <v>18</v>
       </c>
       <c r="M120" t="s">
-        <v>368</v>
+        <v>1243</v>
       </c>
       <c r="N120" t="s">
-        <v>441</v>
+        <v>810</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="7" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1282</v>
+        <v>1310</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>1283</v>
+        <v>1311</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1284</v>
+        <v>1312</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>354</v>
@@ -49858,24 +49843,24 @@
         <v>18</v>
       </c>
       <c r="M122" t="s">
-        <v>1243</v>
+        <v>1313</v>
       </c>
       <c r="N122" t="s">
-        <v>810</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="7" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1310</v>
+        <v>1329</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>1311</v>
+        <v>389</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1312</v>
+        <v>1330</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>354</v>
@@ -49893,7 +49878,7 @@
         <v>2870</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>2871</v>
+        <v>2952</v>
       </c>
       <c r="K124" t="s">
         <v>2872</v>
@@ -49902,24 +49887,24 @@
         <v>18</v>
       </c>
       <c r="M124" t="s">
-        <v>1313</v>
+        <v>479</v>
       </c>
       <c r="N124" t="s">
-        <v>368</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="7" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>389</v>
+        <v>892</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>354</v>
@@ -49936,9 +49921,6 @@
       <c r="I126" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J126" s="8" t="s">
-        <v>2955</v>
-      </c>
       <c r="K126" t="s">
         <v>2872</v>
       </c>
@@ -49946,24 +49928,24 @@
         <v>18</v>
       </c>
       <c r="M126" t="s">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="N126" t="s">
-        <v>634</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="7" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>892</v>
+        <v>24</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>354</v>
@@ -49987,24 +49969,24 @@
         <v>18</v>
       </c>
       <c r="M128" t="s">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="N128" t="s">
-        <v>237</v>
+        <v>531</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="7" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>24</v>
+        <v>801</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1342</v>
+        <v>1359</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>354</v>
@@ -50021,6 +50003,9 @@
       <c r="I130" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J130" s="8" t="s">
+        <v>2871</v>
+      </c>
       <c r="K130" t="s">
         <v>2872</v>
       </c>
@@ -50028,24 +50013,24 @@
         <v>18</v>
       </c>
       <c r="M130" t="s">
-        <v>530</v>
+        <v>628</v>
       </c>
       <c r="N130" t="s">
-        <v>531</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="7" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>801</v>
+        <v>866</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1359</v>
+        <v>1368</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>354</v>
@@ -50063,7 +50048,7 @@
         <v>2870</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K132" t="s">
         <v>2872</v>
@@ -50072,24 +50057,24 @@
         <v>18</v>
       </c>
       <c r="M132" t="s">
-        <v>628</v>
+        <v>1185</v>
       </c>
       <c r="N132" t="s">
-        <v>358</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="7" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>866</v>
+        <v>1375</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>354</v>
@@ -50107,7 +50092,7 @@
         <v>2870</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
       <c r="K134" t="s">
         <v>2872</v>
@@ -50116,24 +50101,24 @@
         <v>18</v>
       </c>
       <c r="M134" t="s">
-        <v>1185</v>
+        <v>1377</v>
       </c>
       <c r="N134" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="7" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1374</v>
+        <v>1385</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>1375</v>
+        <v>1386</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>354</v>
@@ -50151,7 +50136,7 @@
         <v>2870</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K136" t="s">
         <v>2872</v>
@@ -50160,24 +50145,24 @@
         <v>18</v>
       </c>
       <c r="M136" t="s">
-        <v>1377</v>
+        <v>628</v>
       </c>
       <c r="N136" t="s">
-        <v>56</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="7" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1385</v>
+        <v>1417</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>1386</v>
+        <v>250</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1387</v>
+        <v>1418</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>354</v>
@@ -50194,9 +50179,6 @@
       <c r="I138" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J138" s="8" t="s">
-        <v>2879</v>
-      </c>
       <c r="K138" t="s">
         <v>2872</v>
       </c>
@@ -50204,24 +50186,24 @@
         <v>18</v>
       </c>
       <c r="M138" t="s">
-        <v>628</v>
+        <v>2333</v>
       </c>
       <c r="N138" t="s">
-        <v>392</v>
+        <v>584</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="7" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>250</v>
+        <v>1421</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>354</v>
@@ -50238,6 +50220,9 @@
       <c r="I140" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J140" s="8" t="s">
+        <v>2874</v>
+      </c>
       <c r="K140" t="s">
         <v>2872</v>
       </c>
@@ -50245,7 +50230,7 @@
         <v>18</v>
       </c>
       <c r="M140" t="s">
-        <v>2333</v>
+        <v>1427</v>
       </c>
       <c r="N140" t="s">
         <v>584</v>
@@ -50253,16 +50238,16 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="7" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>1421</v>
+        <v>289</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>354</v>
@@ -50280,7 +50265,7 @@
         <v>2870</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K142" t="s">
         <v>2872</v>
@@ -50289,7 +50274,7 @@
         <v>18</v>
       </c>
       <c r="M142" t="s">
-        <v>1427</v>
+        <v>911</v>
       </c>
       <c r="N142" t="s">
         <v>584</v>
@@ -50297,16 +50282,16 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="7" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>289</v>
+        <v>1421</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>354</v>
@@ -50324,7 +50309,7 @@
         <v>2870</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K144" t="s">
         <v>2872</v>
@@ -50333,21 +50318,21 @@
         <v>18</v>
       </c>
       <c r="M144" t="s">
-        <v>911</v>
+        <v>2963</v>
       </c>
       <c r="N144" t="s">
-        <v>584</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="7" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>1421</v>
+        <v>1433</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>1430</v>
@@ -50377,7 +50362,7 @@
         <v>18</v>
       </c>
       <c r="M146" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="N146" t="s">
         <v>441</v>
@@ -50385,16 +50370,16 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="7" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1432</v>
+        <v>1443</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>1433</v>
+        <v>493</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1430</v>
+        <v>93</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>354</v>
@@ -50412,7 +50397,7 @@
         <v>2870</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="K148" t="s">
         <v>2872</v>
@@ -50421,24 +50406,24 @@
         <v>18</v>
       </c>
       <c r="M148" t="s">
-        <v>2966</v>
+        <v>1444</v>
       </c>
       <c r="N148" t="s">
-        <v>441</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="7" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1443</v>
+        <v>1465</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>493</v>
+        <v>175</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>93</v>
+        <v>1466</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>354</v>
@@ -50456,7 +50441,7 @@
         <v>2870</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="K150" t="s">
         <v>2872</v>
@@ -50465,30 +50450,30 @@
         <v>18</v>
       </c>
       <c r="M150" t="s">
-        <v>1444</v>
+        <v>2502</v>
       </c>
       <c r="N150" t="s">
-        <v>46</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="7" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>1446</v>
+        <v>1474</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>2906</v>
+        <v>354</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>2907</v>
+        <v>355</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>354</v>
@@ -50500,7 +50485,7 @@
         <v>2870</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K152" t="s">
         <v>2872</v>
@@ -50509,24 +50494,24 @@
         <v>18</v>
       </c>
       <c r="M152" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="N152" t="s">
-        <v>241</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="7" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1465</v>
+        <v>1508</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1466</v>
+        <v>1509</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>354</v>
@@ -50544,7 +50529,7 @@
         <v>2870</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="K154" t="s">
         <v>2872</v>
@@ -50553,24 +50538,24 @@
         <v>18</v>
       </c>
       <c r="M154" t="s">
-        <v>2502</v>
+        <v>240</v>
       </c>
       <c r="N154" t="s">
-        <v>392</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="7" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>1474</v>
+        <v>1512</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>189</v>
+        <v>1513</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1471</v>
+        <v>1514</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>354</v>
@@ -50597,30 +50582,30 @@
         <v>18</v>
       </c>
       <c r="M156" t="s">
-        <v>2973</v>
+        <v>1539</v>
       </c>
       <c r="N156" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="7" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>1480</v>
+        <v>1517</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>709</v>
+        <v>202</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1481</v>
+        <v>1518</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>2906</v>
+        <v>354</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>2907</v>
+        <v>355</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>354</v>
@@ -50632,7 +50617,7 @@
         <v>2870</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K158" t="s">
         <v>2872</v>
@@ -50641,24 +50626,24 @@
         <v>18</v>
       </c>
       <c r="M158" t="s">
-        <v>1203</v>
+        <v>2963</v>
       </c>
       <c r="N158" t="s">
-        <v>241</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="7" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1508</v>
+        <v>1521</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>508</v>
+        <v>1522</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1509</v>
+        <v>1523</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>354</v>
@@ -50675,9 +50660,6 @@
       <c r="I160" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J160" s="8" t="s">
-        <v>2871</v>
-      </c>
       <c r="K160" t="s">
         <v>2872</v>
       </c>
@@ -50685,24 +50667,24 @@
         <v>18</v>
       </c>
       <c r="M160" t="s">
-        <v>240</v>
+        <v>407</v>
       </c>
       <c r="N160" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="7" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>1512</v>
+        <v>1525</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>1513</v>
+        <v>385</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1514</v>
+        <v>1526</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>354</v>
@@ -50719,9 +50701,6 @@
       <c r="I162" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J162" s="8" t="s">
-        <v>2874</v>
-      </c>
       <c r="K162" t="s">
         <v>2872</v>
       </c>
@@ -50729,24 +50708,24 @@
         <v>18</v>
       </c>
       <c r="M162" t="s">
-        <v>1539</v>
+        <v>2974</v>
       </c>
       <c r="N162" t="s">
-        <v>392</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="7" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>1517</v>
+        <v>1529</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>202</v>
+        <v>1530</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>354</v>
@@ -50763,9 +50742,6 @@
       <c r="I164" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J164" s="8" t="s">
-        <v>2874</v>
-      </c>
       <c r="K164" t="s">
         <v>2872</v>
       </c>
@@ -50773,24 +50749,24 @@
         <v>18</v>
       </c>
       <c r="M164" t="s">
-        <v>2966</v>
+        <v>1527</v>
       </c>
       <c r="N164" t="s">
-        <v>441</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="7" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>1521</v>
+        <v>1534</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>1522</v>
+        <v>493</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1523</v>
+        <v>1535</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>354</v>
@@ -50807,6 +50783,9 @@
       <c r="I166" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J166" s="8" t="s">
+        <v>2874</v>
+      </c>
       <c r="K166" t="s">
         <v>2872</v>
       </c>
@@ -50814,24 +50793,24 @@
         <v>18</v>
       </c>
       <c r="M166" t="s">
-        <v>407</v>
+        <v>2761</v>
       </c>
       <c r="N166" t="s">
-        <v>46</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="7" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>1525</v>
+        <v>1551</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>385</v>
+        <v>1552</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1526</v>
+        <v>1553</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>354</v>
@@ -50848,6 +50827,9 @@
       <c r="I168" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J168" s="8" t="s">
+        <v>2871</v>
+      </c>
       <c r="K168" t="s">
         <v>2872</v>
       </c>
@@ -50855,24 +50837,24 @@
         <v>18</v>
       </c>
       <c r="M168" t="s">
-        <v>2980</v>
+        <v>2855</v>
       </c>
       <c r="N168" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="7" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>1529</v>
+        <v>1572</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>1530</v>
+        <v>30</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1526</v>
+        <v>1570</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>354</v>
@@ -50893,27 +50875,30 @@
         <v>2872</v>
       </c>
       <c r="L170" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M170" t="s">
-        <v>1527</v>
+        <v>914</v>
       </c>
       <c r="N170" t="s">
         <v>56</v>
       </c>
+      <c r="P170" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="7" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>1534</v>
+        <v>1568</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>493</v>
+        <v>1569</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1535</v>
+        <v>1570</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>354</v>
@@ -50931,7 +50916,7 @@
         <v>2870</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="K172" t="s">
         <v>2872</v>
@@ -50940,24 +50925,24 @@
         <v>18</v>
       </c>
       <c r="M172" t="s">
-        <v>2761</v>
+        <v>914</v>
       </c>
       <c r="N172" t="s">
-        <v>441</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="7" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>1551</v>
+        <v>1581</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>1552</v>
+        <v>1582</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1553</v>
+        <v>1583</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>354</v>
@@ -50975,7 +50960,7 @@
         <v>2870</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K174" t="s">
         <v>2872</v>
@@ -50984,24 +50969,24 @@
         <v>18</v>
       </c>
       <c r="M174" t="s">
-        <v>2855</v>
+        <v>1263</v>
       </c>
       <c r="N174" t="s">
-        <v>166</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="7" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1572</v>
+        <v>1590</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1570</v>
+        <v>1591</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>354</v>
@@ -51018,34 +51003,34 @@
       <c r="I176" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J176" s="8" t="s">
+        <v>2982</v>
+      </c>
       <c r="K176" t="s">
         <v>2872</v>
       </c>
       <c r="L176" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M176" t="s">
-        <v>914</v>
+        <v>1592</v>
       </c>
       <c r="N176" t="s">
-        <v>56</v>
-      </c>
-      <c r="P176" t="s">
-        <v>1380</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="7" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>1568</v>
+        <v>1598</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>1569</v>
+        <v>202</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1570</v>
+        <v>1599</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>354</v>
@@ -51063,7 +51048,7 @@
         <v>2870</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="K178" t="s">
         <v>2872</v>
@@ -51072,24 +51057,24 @@
         <v>18</v>
       </c>
       <c r="M178" t="s">
-        <v>914</v>
+        <v>2075</v>
       </c>
       <c r="N178" t="s">
-        <v>56</v>
+        <v>425</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="7" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1581</v>
+        <v>1620</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>1582</v>
+        <v>24</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1583</v>
+        <v>1621</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>354</v>
@@ -51107,7 +51092,7 @@
         <v>2870</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K180" t="s">
         <v>2872</v>
@@ -51116,24 +51101,24 @@
         <v>18</v>
       </c>
       <c r="M180" t="s">
-        <v>1263</v>
+        <v>2985</v>
       </c>
       <c r="N180" t="s">
-        <v>1558</v>
+        <v>531</v>
       </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="7" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>1590</v>
+        <v>1640</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>79</v>
+        <v>1641</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1591</v>
+        <v>1642</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>354</v>
@@ -51151,7 +51136,7 @@
         <v>2870</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>2988</v>
+        <v>2871</v>
       </c>
       <c r="K182" t="s">
         <v>2872</v>
@@ -51160,24 +51145,24 @@
         <v>18</v>
       </c>
       <c r="M182" t="s">
-        <v>1592</v>
+        <v>1558</v>
       </c>
       <c r="N182" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="7" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>1598</v>
+        <v>1644</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>202</v>
+        <v>1645</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1599</v>
+        <v>1646</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>354</v>
@@ -51195,7 +51180,7 @@
         <v>2870</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="K184" t="s">
         <v>2872</v>
@@ -51204,24 +51189,24 @@
         <v>18</v>
       </c>
       <c r="M184" t="s">
-        <v>2075</v>
+        <v>407</v>
       </c>
       <c r="N184" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="7" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>1620</v>
+        <v>2989</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>1621</v>
+        <v>1646</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>354</v>
@@ -51248,24 +51233,24 @@
         <v>18</v>
       </c>
       <c r="M186" t="s">
-        <v>2991</v>
+        <v>407</v>
       </c>
       <c r="N186" t="s">
-        <v>531</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="7" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>1640</v>
+        <v>1649</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>1641</v>
+        <v>1650</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1642</v>
+        <v>1651</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>354</v>
@@ -51283,7 +51268,7 @@
         <v>2870</v>
       </c>
       <c r="J188" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K188" t="s">
         <v>2872</v>
@@ -51292,24 +51277,24 @@
         <v>18</v>
       </c>
       <c r="M188" t="s">
-        <v>1558</v>
+        <v>1808</v>
       </c>
       <c r="N188" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="7" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>1644</v>
+        <v>1653</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>1645</v>
+        <v>193</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>354</v>
@@ -51327,7 +51312,7 @@
         <v>2870</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K190" t="s">
         <v>2872</v>
@@ -51336,7 +51321,7 @@
         <v>18</v>
       </c>
       <c r="M190" t="s">
-        <v>407</v>
+        <v>944</v>
       </c>
       <c r="N190" t="s">
         <v>46</v>
@@ -51344,16 +51329,16 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="7" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>2995</v>
+        <v>1685</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1646</v>
+        <v>176</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>354</v>
@@ -51371,7 +51356,7 @@
         <v>2870</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K192" t="s">
         <v>2872</v>
@@ -51380,24 +51365,24 @@
         <v>18</v>
       </c>
       <c r="M192" t="s">
-        <v>407</v>
+        <v>172</v>
       </c>
       <c r="N192" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="7" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>1649</v>
+        <v>1687</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>1650</v>
+        <v>202</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1651</v>
+        <v>1688</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>354</v>
@@ -51424,24 +51409,24 @@
         <v>18</v>
       </c>
       <c r="M194" t="s">
-        <v>1808</v>
+        <v>1689</v>
       </c>
       <c r="N194" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="7" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>1653</v>
+        <v>1744</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>193</v>
+        <v>1745</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>1654</v>
+        <v>1746</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>354</v>
@@ -51468,24 +51453,24 @@
         <v>18</v>
       </c>
       <c r="M196" t="s">
-        <v>944</v>
+        <v>1791</v>
       </c>
       <c r="N196" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="7" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>1685</v>
+        <v>1748</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>175</v>
+        <v>1749</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>176</v>
+        <v>1750</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>354</v>
@@ -51502,9 +51487,6 @@
       <c r="I198" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J198" s="8" t="s">
-        <v>2879</v>
-      </c>
       <c r="K198" t="s">
         <v>2872</v>
       </c>
@@ -51512,24 +51494,24 @@
         <v>18</v>
       </c>
       <c r="M198" t="s">
-        <v>172</v>
+        <v>1194</v>
       </c>
       <c r="N198" t="s">
-        <v>21</v>
+        <v>596</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="7" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>1687</v>
+        <v>1767</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>1688</v>
+        <v>98</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>354</v>
@@ -51547,7 +51529,7 @@
         <v>2870</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
       <c r="K200" t="s">
         <v>2872</v>
@@ -51556,24 +51538,24 @@
         <v>18</v>
       </c>
       <c r="M200" t="s">
-        <v>1689</v>
+        <v>108</v>
       </c>
       <c r="N200" t="s">
-        <v>392</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="7" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>1744</v>
+        <v>1784</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>1745</v>
+        <v>1785</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1746</v>
+        <v>1786</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>354</v>
@@ -51590,9 +51572,6 @@
       <c r="I202" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J202" s="8" t="s">
-        <v>2879</v>
-      </c>
       <c r="K202" t="s">
         <v>2872</v>
       </c>
@@ -51600,24 +51579,24 @@
         <v>18</v>
       </c>
       <c r="M202" t="s">
-        <v>1791</v>
+        <v>2911</v>
       </c>
       <c r="N202" t="s">
-        <v>56</v>
+        <v>634</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="7" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>1748</v>
+        <v>1814</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>1749</v>
+        <v>453</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>1750</v>
+        <v>1815</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>354</v>
@@ -51634,6 +51613,9 @@
       <c r="I204" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J204" s="8" t="s">
+        <v>2879</v>
+      </c>
       <c r="K204" t="s">
         <v>2872</v>
       </c>
@@ -51641,24 +51623,24 @@
         <v>18</v>
       </c>
       <c r="M204" t="s">
-        <v>1194</v>
+        <v>2999</v>
       </c>
       <c r="N204" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="7" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>1767</v>
+        <v>1827</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>97</v>
+        <v>1828</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>98</v>
+        <v>1829</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>354</v>
@@ -51676,7 +51658,7 @@
         <v>2870</v>
       </c>
       <c r="J206" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K206" t="s">
         <v>2872</v>
@@ -51685,24 +51667,24 @@
         <v>18</v>
       </c>
       <c r="M206" t="s">
-        <v>108</v>
+        <v>574</v>
       </c>
       <c r="N206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="7" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>1784</v>
+        <v>1839</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>1785</v>
+        <v>289</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>1786</v>
+        <v>1840</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>354</v>
@@ -51719,6 +51701,9 @@
       <c r="I208" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J208" s="8" t="s">
+        <v>2879</v>
+      </c>
       <c r="K208" t="s">
         <v>2872</v>
       </c>
@@ -51726,24 +51711,24 @@
         <v>18</v>
       </c>
       <c r="M208" t="s">
-        <v>2914</v>
+        <v>651</v>
       </c>
       <c r="N208" t="s">
-        <v>634</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="7" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>1814</v>
+        <v>1859</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>1815</v>
+        <v>1860</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>354</v>
@@ -51760,9 +51745,6 @@
       <c r="I210" s="8" t="s">
         <v>2870</v>
       </c>
-      <c r="J210" s="8" t="s">
-        <v>2879</v>
-      </c>
       <c r="K210" t="s">
         <v>2872</v>
       </c>
@@ -51770,24 +51752,24 @@
         <v>18</v>
       </c>
       <c r="M210" t="s">
-        <v>3005</v>
+        <v>1335</v>
       </c>
       <c r="N210" t="s">
-        <v>584</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="7" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1827</v>
+        <v>1870</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>1828</v>
+        <v>75</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>1829</v>
+        <v>1871</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>354</v>
@@ -51805,7 +51787,7 @@
         <v>2870</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K212" t="s">
         <v>2872</v>
@@ -51814,24 +51796,24 @@
         <v>18</v>
       </c>
       <c r="M212" t="s">
-        <v>574</v>
+        <v>1327</v>
       </c>
       <c r="N212" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="7" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>1839</v>
+        <v>1874</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>289</v>
+        <v>1875</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>1840</v>
+        <v>1871</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>354</v>
@@ -51849,7 +51831,7 @@
         <v>2870</v>
       </c>
       <c r="J214" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K214" t="s">
         <v>2872</v>
@@ -51858,24 +51840,24 @@
         <v>18</v>
       </c>
       <c r="M214" t="s">
-        <v>651</v>
+        <v>1327</v>
       </c>
       <c r="N214" t="s">
-        <v>241</v>
+        <v>460</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="7" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>1859</v>
+        <v>1877</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>405</v>
+        <v>1745</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>1860</v>
+        <v>1878</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>354</v>
@@ -51892,6 +51874,9 @@
       <c r="I216" s="8" t="s">
         <v>2870</v>
       </c>
+      <c r="J216" s="8" t="s">
+        <v>2879</v>
+      </c>
       <c r="K216" t="s">
         <v>2872</v>
       </c>
@@ -51899,24 +51884,24 @@
         <v>18</v>
       </c>
       <c r="M216" t="s">
-        <v>1335</v>
+        <v>3006</v>
       </c>
       <c r="N216" t="s">
-        <v>392</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="7" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>1871</v>
+        <v>295</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>354</v>
@@ -51934,33 +51919,33 @@
         <v>2870</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K218" t="s">
         <v>2872</v>
       </c>
       <c r="L218" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="M218" t="s">
-        <v>1327</v>
+        <v>291</v>
       </c>
       <c r="N218" t="s">
-        <v>460</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="7" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>1874</v>
+        <v>1916</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>1875</v>
+        <v>1917</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>1871</v>
+        <v>1914</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>354</v>
@@ -51978,7 +51963,7 @@
         <v>2870</v>
       </c>
       <c r="J220" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K220" t="s">
         <v>2872</v>
@@ -51987,24 +51972,24 @@
         <v>18</v>
       </c>
       <c r="M220" t="s">
-        <v>1327</v>
+        <v>1791</v>
       </c>
       <c r="N220" t="s">
-        <v>460</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="7" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>1877</v>
+        <v>1912</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>1745</v>
+        <v>1913</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>1878</v>
+        <v>1914</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>354</v>
@@ -52031,24 +52016,24 @@
         <v>18</v>
       </c>
       <c r="M222" t="s">
-        <v>3012</v>
+        <v>1391</v>
       </c>
       <c r="N222" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="7" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1880</v>
+        <v>1933</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>294</v>
+        <v>1934</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>295</v>
+        <v>1935</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>354</v>
@@ -52072,27 +52057,27 @@
         <v>2872</v>
       </c>
       <c r="L224" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M224" t="s">
-        <v>291</v>
+        <v>1444</v>
       </c>
       <c r="N224" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="7" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>1916</v>
+        <v>3012</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>1917</v>
+        <v>3013</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>1914</v>
+        <v>1939</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>354</v>
@@ -52110,7 +52095,7 @@
         <v>2870</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K226" t="s">
         <v>2872</v>
@@ -52119,24 +52104,24 @@
         <v>18</v>
       </c>
       <c r="M226" t="s">
-        <v>1791</v>
+        <v>2075</v>
       </c>
       <c r="N226" t="s">
-        <v>21</v>
+        <v>584</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="7" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1912</v>
+        <v>1937</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>1913</v>
+        <v>1938</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>1914</v>
+        <v>1939</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>354</v>
@@ -52154,7 +52139,7 @@
         <v>2870</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K228" t="s">
         <v>2872</v>
@@ -52163,24 +52148,24 @@
         <v>18</v>
       </c>
       <c r="M228" t="s">
-        <v>1391</v>
+        <v>2075</v>
       </c>
       <c r="N228" t="s">
-        <v>166</v>
+        <v>584</v>
       </c>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="7" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1933</v>
+        <v>1957</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>1934</v>
+        <v>1958</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>1935</v>
+        <v>1959</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>354</v>
@@ -52198,7 +52183,7 @@
         <v>2870</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
       <c r="K230" t="s">
         <v>2872</v>
@@ -52207,10 +52192,10 @@
         <v>18</v>
       </c>
       <c r="M230" t="s">
-        <v>1444</v>
+        <v>3016</v>
       </c>
       <c r="N230" t="s">
-        <v>166</v>
+        <v>358</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -52218,13 +52203,13 @@
         <v>3017</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>3018</v>
+        <v>1965</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>3019</v>
+        <v>1371</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>1939</v>
+        <v>1962</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>354</v>
@@ -52242,7 +52227,7 @@
         <v>2870</v>
       </c>
       <c r="J232" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K232" t="s">
         <v>2872</v>
@@ -52251,24 +52236,24 @@
         <v>18</v>
       </c>
       <c r="M232" t="s">
-        <v>2075</v>
+        <v>1963</v>
       </c>
       <c r="N232" t="s">
-        <v>584</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="7" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>1937</v>
+        <v>1961</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>1938</v>
+        <v>413</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>1939</v>
+        <v>1962</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>354</v>
@@ -52286,7 +52271,7 @@
         <v>2870</v>
       </c>
       <c r="J234" s="8" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="K234" t="s">
         <v>2872</v>
@@ -52295,24 +52280,24 @@
         <v>18</v>
       </c>
       <c r="M234" t="s">
-        <v>2075</v>
+        <v>1963</v>
       </c>
       <c r="N234" t="s">
-        <v>584</v>
+        <v>392</v>
       </c>
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="7" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>1957</v>
+        <v>1983</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>1958</v>
+        <v>250</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>1959</v>
+        <v>1984</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>354</v>
@@ -52330,7 +52315,7 @@
         <v>2870</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="K236" t="s">
         <v>2872</v>
@@ -52339,7 +52324,7 @@
         <v>18</v>
       </c>
       <c r="M236" t="s">
-        <v>3022</v>
+        <v>1166</v>
       </c>
       <c r="N236" t="s">
         <v>358</v>
@@ -52347,16 +52332,16 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="7" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>1965</v>
+        <v>1986</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>1371</v>
+        <v>1987</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>1962</v>
+        <v>1988</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>354</v>
@@ -52374,7 +52359,7 @@
         <v>2870</v>
       </c>
       <c r="J238" s="8" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="K238" t="s">
         <v>2872</v>
@@ -52383,142 +52368,10 @@
         <v>18</v>
       </c>
       <c r="M238" t="s">
-        <v>1963</v>
+        <v>2163</v>
       </c>
       <c r="N238" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14">
-      <c r="A240" s="7" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F240" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H240" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I240" s="8" t="s">
-        <v>2870</v>
-      </c>
-      <c r="J240" s="8" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K240" t="s">
-        <v>2872</v>
-      </c>
-      <c r="L240" t="s">
-        <v>18</v>
-      </c>
-      <c r="M240" t="s">
-        <v>1963</v>
-      </c>
-      <c r="N240" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14">
-      <c r="A242" s="7" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>1984</v>
-      </c>
-      <c r="E242" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F242" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="G242" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H242" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>2870</v>
-      </c>
-      <c r="J242" s="8" t="s">
-        <v>2879</v>
-      </c>
-      <c r="K242" t="s">
-        <v>2872</v>
-      </c>
-      <c r="L242" t="s">
-        <v>18</v>
-      </c>
-      <c r="M242" t="s">
-        <v>1166</v>
-      </c>
-      <c r="N242" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14">
-      <c r="A244" s="7" t="s">
-        <v>3026</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E244" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F244" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="G244" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H244" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I244" s="8" t="s">
-        <v>2870</v>
-      </c>
-      <c r="J244" s="8" t="s">
-        <v>2874</v>
-      </c>
-      <c r="K244" t="s">
-        <v>2872</v>
-      </c>
-      <c r="L244" t="s">
-        <v>18</v>
-      </c>
-      <c r="M244" t="s">
-        <v>2163</v>
-      </c>
-      <c r="N244" t="s">
-        <v>3027</v>
+        <v>3021</v>
       </c>
     </row>
   </sheetData>
@@ -52761,12 +52614,6 @@
     <hyperlink ref="B236" r:id="rId236"/>
     <hyperlink ref="A238" r:id="rId237"/>
     <hyperlink ref="B238" r:id="rId238"/>
-    <hyperlink ref="A240" r:id="rId239"/>
-    <hyperlink ref="B240" r:id="rId240"/>
-    <hyperlink ref="A242" r:id="rId241"/>
-    <hyperlink ref="B242" r:id="rId242"/>
-    <hyperlink ref="A244" r:id="rId243"/>
-    <hyperlink ref="B244" r:id="rId244"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
